--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:34:35+00:00</t>
+    <t>2022-11-28T14:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:50:55+00:00</t>
+    <t>2022-11-29T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:15:59+00:00</t>
+    <t>2022-11-29T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:15:00+00:00</t>
+    <t>2022-11-29T13:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$55</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="372">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:37:45+00:00</t>
+    <t>2022-11-29T14:53:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -543,7 +540,7 @@
     <t>Specimen.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Substance|Location)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -933,20 +930,168 @@
     <t>A record of the time or period when the specimen processing occurred.  For example the time of sample fixation or the period of time the sample was in formalin.</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>timePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
+    <t>Specimen.container</t>
+  </si>
+  <si>
+    <t>Direct container of specimen (tube/slide, etc.)</t>
+  </si>
+  <si>
+    <t>The container holding the specimen.  The recursive nature of containers; i.e. blood in tube in tray in rack is not addressed here.</t>
+  </si>
+  <si>
+    <t>.player.scopingRole[classCode=CONT].scoper</t>
+  </si>
+  <si>
+    <t>Specimen.container.id</t>
+  </si>
+  <si>
+    <t>Specimen.container.extension</t>
+  </si>
+  <si>
+    <t>Specimen.container.modifierExtension</t>
+  </si>
+  <si>
+    <t>Specimen.container.identifier</t>
+  </si>
+  <si>
+    <t>Id for the container</t>
+  </si>
+  <si>
+    <t>Id for container. There may be multiple; a manufacturer's bar code, lab assigned identifier, etc. The container ID may differ from the specimen id in some circumstances.</t>
+  </si>
+  <si>
+    <t>SAC-3</t>
+  </si>
+  <si>
+    <t>Specimen.container.description</t>
+  </si>
+  <si>
+    <t>Textual description of the container</t>
+  </si>
+  <si>
+    <t>Textual description of the container.</t>
+  </si>
+  <si>
+    <t>.desc</t>
+  </si>
+  <si>
+    <t>Specimen.container.type</t>
+  </si>
+  <si>
+    <t>Kind of container directly associated with specimen</t>
+  </si>
+  <si>
+    <t>The type of container associated with the specimen (e.g. slide, aliquot, etc.).</t>
+  </si>
+  <si>
+    <t>Type of specimen container.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/specimen-container-type</t>
+  </si>
+  <si>
+    <t>SPM-27</t>
+  </si>
+  <si>
+    <t>Specimen.container.capacity</t>
+  </si>
+  <si>
+    <t>Container volume or size</t>
+  </si>
+  <si>
+    <t>The capacity (volume or other measure) the container may contain.</t>
+  </si>
+  <si>
+    <t>.quantity</t>
+  </si>
+  <si>
+    <t>one of: SAC 16, SAC17 and SAC 20, or SAC 21 and SAC 20</t>
+  </si>
+  <si>
+    <t>Specimen.container.specimenQuantity</t>
+  </si>
+  <si>
+    <t>Quantity of specimen within container</t>
+  </si>
+  <si>
+    <t>The quantity of specimen in the container; may be volume, dimensions, or other appropriate measurements, depending on the specimen type.</t>
+  </si>
+  <si>
+    <t>.playedRole[classCode=CONT].quantity</t>
+  </si>
+  <si>
+    <t>SAC-23 (value) SAC-24 (units</t>
+  </si>
+  <si>
+    <t>Specimen.container.additive[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Substance)</t>
+  </si>
+  <si>
+    <t>Additive associated with container</t>
+  </si>
+  <si>
+    <t>Introduced substance to preserve, maintain or enhance the specimen. Examples: Formalin, Citrate, EDTA.</t>
+  </si>
+  <si>
+    <t>Substance added to specimen container.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0371</t>
+  </si>
+  <si>
+    <t>.scopesRole[classCode=ADTV].player</t>
+  </si>
+  <si>
+    <t>SAC-27</t>
+  </si>
+  <si>
+    <t>Specimen.condition</t>
+  </si>
+  <si>
+    <t>State of the specimen</t>
+  </si>
+  <si>
+    <t>A mode or state of being that describes the nature of the specimen.</t>
+  </si>
+  <si>
+    <t>Specimen condition is an observation made about the specimen.  It's a point-in-time assessment.  It can be used to assess its quality or appropriateness for a specific test.</t>
+  </si>
+  <si>
+    <t>The specimen condition can be used to assess its quality or appropriateness for a specific test.</t>
+  </si>
+  <si>
+    <t>Codes describing the state of the specimen.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0493</t>
+  </si>
+  <si>
+    <t>SPM-24</t>
+  </si>
+  <si>
+    <t>Specimen.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>Specimen.processing.time[x].id</t>
-  </si>
-  <si>
-    <t>Specimen.processing.time[x].extension</t>
+    <t>To communicate any details or issues about the specimen or during the specimen collection. (for example: broken vial, sent with patient, frozen).</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
+  </si>
+  <si>
+    <t>OBX</t>
+  </si>
+  <si>
+    <t>Specimen.note.id</t>
+  </si>
+  <si>
+    <t>Specimen.note.extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -956,211 +1101,70 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>Specimen.processing.time[x].start</t>
-  </si>
-  <si>
-    <t>Starting time with inclusive boundary</t>
-  </si>
-  <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">per-1
+    <t>open</t>
+  </si>
+  <si>
+    <t>Specimen.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>authorReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
-    <t>./low</t>
-  </si>
-  <si>
-    <t>DR.1</t>
-  </si>
-  <si>
-    <t>Specimen.processing.time[x].end</t>
-  </si>
-  <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
-  </si>
-  <si>
-    <t>./high</t>
-  </si>
-  <si>
-    <t>DR.2</t>
-  </si>
-  <si>
-    <t>Specimen.container</t>
-  </si>
-  <si>
-    <t>Direct container of specimen (tube/slide, etc.)</t>
-  </si>
-  <si>
-    <t>The container holding the specimen.  The recursive nature of containers; i.e. blood in tube in tray in rack is not addressed here.</t>
-  </si>
-  <si>
-    <t>.player.scopingRole[classCode=CONT].scoper</t>
-  </si>
-  <si>
-    <t>Specimen.container.id</t>
-  </si>
-  <si>
-    <t>Specimen.container.extension</t>
-  </si>
-  <si>
-    <t>Specimen.container.modifierExtension</t>
-  </si>
-  <si>
-    <t>Specimen.container.identifier</t>
-  </si>
-  <si>
-    <t>Id for the container</t>
-  </si>
-  <si>
-    <t>Id for container. There may be multiple; a manufacturer's bar code, lab assigned identifier, etc. The container ID may differ from the specimen id in some circumstances.</t>
-  </si>
-  <si>
-    <t>SAC-3</t>
-  </si>
-  <si>
-    <t>Specimen.container.description</t>
-  </si>
-  <si>
-    <t>Textual description of the container</t>
-  </si>
-  <si>
-    <t>Textual description of the container.</t>
-  </si>
-  <si>
-    <t>.desc</t>
-  </si>
-  <si>
-    <t>Specimen.container.type</t>
-  </si>
-  <si>
-    <t>Kind of container directly associated with specimen</t>
-  </si>
-  <si>
-    <t>The type of container associated with the specimen (e.g. slide, aliquot, etc.).</t>
-  </si>
-  <si>
-    <t>Type of specimen container.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-container-type</t>
-  </si>
-  <si>
-    <t>SPM-27</t>
-  </si>
-  <si>
-    <t>Specimen.container.capacity</t>
-  </si>
-  <si>
-    <t>Container volume or size</t>
-  </si>
-  <si>
-    <t>The capacity (volume or other measure) the container may contain.</t>
-  </si>
-  <si>
-    <t>.quantity</t>
-  </si>
-  <si>
-    <t>one of: SAC 16, SAC17 and SAC 20, or SAC 21 and SAC 20</t>
-  </si>
-  <si>
-    <t>Specimen.container.specimenQuantity</t>
-  </si>
-  <si>
-    <t>Quantity of specimen within container</t>
-  </si>
-  <si>
-    <t>The quantity of specimen in the container; may be volume, dimensions, or other appropriate measurements, depending on the specimen type.</t>
-  </si>
-  <si>
-    <t>.playedRole[classCode=CONT].quantity</t>
-  </si>
-  <si>
-    <t>SAC-23 (value) SAC-24 (units</t>
-  </si>
-  <si>
-    <t>Specimen.container.additive[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(Substance)</t>
-  </si>
-  <si>
-    <t>Additive associated with container</t>
-  </si>
-  <si>
-    <t>Introduced substance to preserve, maintain or enhance the specimen. Examples: Formalin, Citrate, EDTA.</t>
-  </si>
-  <si>
-    <t>Substance added to specimen container.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0371</t>
-  </si>
-  <si>
-    <t>.scopesRole[classCode=ADTV].player</t>
-  </si>
-  <si>
-    <t>SAC-27</t>
-  </si>
-  <si>
-    <t>Specimen.condition</t>
-  </si>
-  <si>
-    <t>State of the specimen</t>
-  </si>
-  <si>
-    <t>A mode or state of being that describes the nature of the specimen.</t>
-  </si>
-  <si>
-    <t>Specimen condition is an observation made about the specimen.  It's a point-in-time assessment.  It can be used to assess its quality or appropriateness for a specific test.</t>
-  </si>
-  <si>
-    <t>The specimen condition can be used to assess its quality or appropriateness for a specific test.</t>
-  </si>
-  <si>
-    <t>Codes describing the state of the specimen.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0493</t>
-  </si>
-  <si>
-    <t>SPM-24</t>
-  </si>
-  <si>
-    <t>Specimen.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
+    <t>Specimen.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>Specimen.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
 </t>
   </si>
   <si>
-    <t>To communicate any details or issues about the specimen or during the specimen collection. (for example: broken vial, sent with patient, frozen).</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
-  </si>
-  <si>
-    <t>OBX</t>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
   </si>
 </sst>
 </file>
@@ -1289,21 +1293,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1480,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL55"/>
+  <dimension ref="A1:AL56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1645,7 +1634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -1751,7 +1740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>80</v>
       </c>
@@ -1859,7 +1848,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>88</v>
       </c>
@@ -1965,7 +1954,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -2073,7 +2062,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>100</v>
       </c>
@@ -2181,7 +2170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>109</v>
       </c>
@@ -2289,7 +2278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>117</v>
       </c>
@@ -2397,7 +2386,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>125</v>
       </c>
@@ -2505,7 +2494,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>133</v>
       </c>
@@ -2631,7 +2620,7 @@
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2721,7 +2710,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>145</v>
       </c>
@@ -2827,7 +2816,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>150</v>
       </c>
@@ -2945,13 +2934,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -3057,7 +3046,7 @@
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3149,7 +3138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>176</v>
       </c>
@@ -3255,7 +3244,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>183</v>
       </c>
@@ -3363,7 +3352,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>189</v>
       </c>
@@ -3471,7 +3460,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>197</v>
       </c>
@@ -3565,7 +3554,7 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>201</v>
@@ -3577,7 +3566,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>203</v>
       </c>
@@ -3683,7 +3672,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>209</v>
       </c>
@@ -3791,7 +3780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>212</v>
       </c>
@@ -3901,7 +3890,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>217</v>
       </c>
@@ -4007,7 +3996,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>224</v>
       </c>
@@ -4129,7 +4118,7 @@
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4219,7 +4208,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>233</v>
       </c>
@@ -4325,7 +4314,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>237</v>
       </c>
@@ -4431,7 +4420,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>243</v>
       </c>
@@ -4537,7 +4526,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>251</v>
       </c>
@@ -4645,7 +4634,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>259</v>
       </c>
@@ -4755,7 +4744,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>269</v>
       </c>
@@ -4849,7 +4838,7 @@
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>272</v>
@@ -4861,7 +4850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>273</v>
       </c>
@@ -4967,7 +4956,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>274</v>
       </c>
@@ -5075,7 +5064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>275</v>
       </c>
@@ -5185,7 +5174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>276</v>
       </c>
@@ -5291,7 +5280,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>280</v>
       </c>
@@ -5397,7 +5386,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>285</v>
       </c>
@@ -5503,7 +5492,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>291</v>
       </c>
@@ -5573,14 +5562,16 @@
         <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>291</v>
@@ -5607,13 +5598,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>74</v>
       </c>
@@ -5622,7 +5611,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -5634,13 +5623,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5691,22 +5680,22 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -5715,9 +5704,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5821,9 +5810,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5893,16 +5882,16 @@
         <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>211</v>
@@ -5929,43 +5918,45 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>304</v>
+        <v>215</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6013,33 +6004,33 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>308</v>
+        <v>124</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>309</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6050,10 +6041,10 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6062,24 +6053,20 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P43" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6123,33 +6110,33 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>316</v>
+        <v>142</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6160,7 +6147,7 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
@@ -6172,13 +6159,13 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6229,13 +6216,13 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
@@ -6244,7 +6231,7 @@
         <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6253,9 +6240,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6278,13 +6265,13 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6311,13 +6298,13 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6335,7 +6322,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>207</v>
+        <v>310</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6347,32 +6334,32 @@
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>74</v>
@@ -6384,17 +6371,15 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6443,69 +6428,65 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>74</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6553,33 +6534,33 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>216</v>
+        <v>321</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>124</v>
+        <v>324</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>74</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6590,7 +6571,7 @@
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -6599,16 +6580,16 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6635,13 +6616,13 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -6659,13 +6640,13 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
@@ -6674,18 +6655,18 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>142</v>
+        <v>332</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6696,7 +6677,7 @@
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>74</v>
@@ -6705,19 +6686,23 @@
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
       </c>
@@ -6741,13 +6726,13 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>74</v>
@@ -6765,13 +6750,13 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
@@ -6780,18 +6765,18 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>332</v>
+        <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>74</v>
+        <v>341</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6814,13 +6799,13 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>161</v>
+        <v>343</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>334</v>
+        <v>48</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6847,13 +6832,13 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>74</v>
@@ -6871,13 +6856,13 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
@@ -6886,18 +6871,18 @@
         <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>166</v>
+        <v>345</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6920,13 +6905,13 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>340</v>
+        <v>205</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>341</v>
+        <v>206</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6977,7 +6962,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>339</v>
+        <v>207</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -6989,32 +6974,32 @@
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>342</v>
+        <v>208</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>343</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>74</v>
@@ -7026,15 +7011,17 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>345</v>
+        <v>128</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7071,45 +7058,45 @@
         <v>74</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>344</v>
+        <v>211</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7129,18 +7116,20 @@
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7165,31 +7154,29 @@
         <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>353</v>
+        <v>74</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7204,20 +7191,22 @@
         <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>356</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7226,7 +7215,7 @@
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>74</v>
@@ -7238,20 +7227,18 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>161</v>
+        <v>360</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7275,13 +7262,13 @@
         <v>74</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>362</v>
+        <v>74</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>363</v>
+        <v>74</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7305,7 +7292,7 @@
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
@@ -7314,18 +7301,18 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>364</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7336,25 +7323,25 @@
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>48</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7405,13 +7392,13 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
@@ -7420,34 +7407,122 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>369</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL55">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:53:02+00:00</t>
+    <t>2022-11-29T15:19:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:19:30+00:00</t>
+    <t>2022-11-29T15:46:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:46:25+00:00</t>
+    <t>2022-11-29T16:13:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:13:33+00:00</t>
+    <t>2022-11-29T16:38:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:38:35+00:00</t>
+    <t>2022-11-29T17:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:19:52+00:00</t>
+    <t>2022-11-30T05:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T05:48:35+00:00</t>
+    <t>2022-11-30T06:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:10:32+00:00</t>
+    <t>2022-11-30T06:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:30:25+00:00</t>
+    <t>2022-11-30T07:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:44:48+00:00</t>
+    <t>2022-11-30T09:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:05:55+00:00</t>
+    <t>2022-11-30T11:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:29:51+00:00</t>
+    <t>2022-11-30T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:53:49+00:00</t>
+    <t>2022-11-30T12:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T12:56:54+00:00</t>
+    <t>2022-11-30T13:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:39:19+00:00</t>
+    <t>2022-11-30T14:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:25:57+00:00</t>
+    <t>2022-12-01T06:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:22:50+00:00</t>
+    <t>2022-12-01T06:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:30:49+00:00</t>
+    <t>2022-12-01T06:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:43:04+00:00</t>
+    <t>2022-12-01T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:55:13+00:00</t>
+    <t>2022-12-01T07:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:05:23+00:00</t>
+    <t>2022-12-01T07:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:37:38+00:00</t>
+    <t>2022-12-01T08:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:15:41+00:00</t>
+    <t>2022-12-01T08:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:22:41+00:00</t>
+    <t>2022-12-01T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:50:08+00:00</t>
+    <t>2022-12-01T09:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:02:26+00:00</t>
+    <t>2022-12-01T09:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:20:32+00:00</t>
+    <t>2022-12-01T09:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:36:28+00:00</t>
+    <t>2022-12-01T10:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:00:58+00:00</t>
+    <t>2022-12-01T10:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:50:29+00:00</t>
+    <t>2022-12-01T10:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:57:09+00:00</t>
+    <t>2022-12-01T11:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:23:26+00:00</t>
+    <t>2022-12-01T11:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:32:02+00:00</t>
+    <t>2022-12-01T11:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:40:36+00:00</t>
+    <t>2022-12-01T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:55:49+00:00</t>
+    <t>2022-12-01T13:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:09:32+00:00</t>
+    <t>2022-12-01T13:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:41:09+00:00</t>
+    <t>2022-12-01T13:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:59:25+00:00</t>
+    <t>2022-12-01T14:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:05:48+00:00</t>
+    <t>2022-12-01T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:38:52+00:00</t>
+    <t>2022-12-01T14:45:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:45:46+00:00</t>
+    <t>2022-12-01T15:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:02:19+00:00</t>
+    <t>2022-12-01T15:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:58:18+00:00</t>
+    <t>2022-12-01T17:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-specimen</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-specimen</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:22:13+00:00</t>
+    <t>2022-12-01T17:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Jembi Health Systems</t>
+    <t>OpenHIE</t>
   </si>
   <si>
     <t>Contact</t>
@@ -525,7 +525,7 @@
     <t>The type can change the way that a specimen is handled and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-specimen-type</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-covid19-specimen-type</t>
   </si>
   <si>
     <t>.code</t>
@@ -1502,7 +1502,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="57.8984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="76.13671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.73828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:41:14+00:00</t>
+    <t>2022-12-01T17:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-specimen</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-specimen</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:51:39+00:00</t>
+    <t>2022-12-01T17:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -525,7 +525,7 @@
     <t>The type can change the way that a specimen is handled and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-covid19-specimen-type</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-specimen-type</t>
   </si>
   <si>
     <t>.code</t>
@@ -1502,7 +1502,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="57.8984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.73828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="76.13671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:57:12+00:00</t>
+    <t>2022-12-01T19:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:12:42+00:00</t>
+    <t>2022-12-01T19:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:29:16+00:00</t>
+    <t>2022-12-02T05:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T05:56:29+00:00</t>
+    <t>2022-12-02T06:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:27:17+00:00</t>
+    <t>2022-12-02T09:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:31:17+00:00</t>
+    <t>2022-12-02T11:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:26:54+00:00</t>
+    <t>2023-01-11T14:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:08:01+00:00</t>
+    <t>2023-01-11T15:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:22:07+00:00</t>
+    <t>2023-01-11T16:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
